--- a/Optimisation/dataset/variable_costs.xlsx
+++ b/Optimisation/dataset/variable_costs.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\62- Other Projects\24- Articles\13- Supply Chain Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_D34A2429145672923B62D0A77C94C59E017A8177" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E5011F94-76E1-4A7B-8AF9-58278175D10E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="29385" yWindow="3600" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>USA</t>
   </si>
@@ -36,13 +48,28 @@
     <t>India</t>
   </si>
   <si>
-    <t>Variable Costs ($/Unit)</t>
+    <t>DMZ1</t>
+  </si>
+  <si>
+    <t>DMZ2</t>
+  </si>
+  <si>
+    <t>DMZ3</t>
+  </si>
+  <si>
+    <t>DMZ4</t>
+  </si>
+  <si>
+    <t>DMZ5</t>
+  </si>
+  <si>
+    <t>Variable Costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,20 +134,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,19 +449,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -453,103 +481,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" s="4">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="4">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="4">
         <v>8</v>
       </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
     </row>

--- a/Optimisation/dataset/variable_costs.xlsx
+++ b/Optimisation/dataset/variable_costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_D34A2429145672923B62D0A77C94C59E017A8177" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E5011F94-76E1-4A7B-8AF9-58278175D10E}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_D34A2429145672923B62D0A77C94C59E017A8177" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6B789736-C8FE-4CC7-A176-01295D7BF95F}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="3600" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36915" yWindow="5265" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>DMZ1</t>
   </si>
   <si>
@@ -64,6 +49,21 @@
   </si>
   <si>
     <t>Variable Costs</t>
+  </si>
+  <si>
+    <t>Ampang Intake</t>
+  </si>
+  <si>
+    <t>Batang Kali</t>
+  </si>
+  <si>
+    <t>Bernam River Head</t>
+  </si>
+  <si>
+    <t>Wangsa Maju</t>
+  </si>
+  <si>
+    <t>Sungai Tengi</t>
   </si>
 </sst>
 </file>
@@ -459,31 +459,36 @@
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>12</v>
@@ -503,7 +508,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>13</v>
@@ -523,7 +528,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>10</v>
@@ -543,7 +548,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -563,7 +568,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
